--- a/exel/report_fo.xlsx
+++ b/exel/report_fo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,113 +457,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8595605</v>
+        <v>78708599</v>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>СЕВЕРО-ЗАПАДНЫЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
+          <t>ПРИВОЛЖСКИЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5894646</v>
+        <v>2231188</v>
       </c>
       <c r="C3" t="n">
-        <v>29.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ПРИВОЛЖСКИЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
+          <t>УРАЛЬСКИЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3781303</v>
+        <v>1203584</v>
       </c>
       <c r="C4" t="n">
-        <v>18.9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ДАЛЬНЕВОСТОЧНЫЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
+          <t>СЕВЕРО-ЗАПАДНЫЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>782486</v>
+        <v>670730</v>
       </c>
       <c r="C5" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>УРАЛЬСКИЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
+          <t>ЮЖНЫЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>378348</v>
+        <v>149363</v>
       </c>
       <c r="C6" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ЮЖНЫЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
+          <t>СИБИРСКИЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>357967</v>
+        <v>21572</v>
       </c>
       <c r="C7" t="n">
-        <v>1.8</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>СИБИРСКИЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
+          <t>ДАЛЬНЕВОСТОЧНЫЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187047</v>
+        <v>16697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>СЕВЕРО-КАВКАЗСКИЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
+          <t>Итого</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1378</v>
+        <v>83001734</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Итого</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>19978780</v>
-      </c>
-      <c r="C10" t="n">
         <v>100</v>
       </c>
     </row>
